--- a/assetDetailsreports.xlsx
+++ b/assetDetailsreports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Asset Id</t>
   </si>
@@ -47,73 +47,103 @@
     <t>ASSPZWAjGI771</t>
   </si>
   <si>
-    <t>Model_00236</t>
+    <t>intel i5 3000</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Ec20239330</t>
+  </si>
+  <si>
+    <t>2022-04-22 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-04-23 00:00:00.0</t>
+  </si>
+  <si>
+    <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>1gb</t>
+  </si>
+  <si>
+    <t>Amazonzz</t>
+  </si>
+  <si>
+    <t>Sneha Sriramaneni</t>
+  </si>
+  <si>
+    <t>ASSFwKtRPU302</t>
+  </si>
+  <si>
+    <t>Legion 77</t>
   </si>
   <si>
     <t>Dell</t>
   </si>
   <si>
-    <t>Serial_123456</t>
-  </si>
-  <si>
-    <t>2022-04-27 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2022-05-31 00:00:00.0</t>
-  </si>
-  <si>
-    <t>ALLOTTED</t>
+    <t>00070070</t>
+  </si>
+  <si>
+    <t>2022-04-03 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-04-29 00:00:00.0</t>
   </si>
   <si>
     <t>32GB</t>
   </si>
   <si>
-    <t>Amazonzz</t>
-  </si>
-  <si>
-    <t>Sneha Sriramaneni</t>
-  </si>
-  <si>
-    <t>ASSFwKtRPU302</t>
-  </si>
-  <si>
-    <t>Legion 77</t>
-  </si>
-  <si>
-    <t>00070070</t>
-  </si>
-  <si>
-    <t>2022-04-03 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2022-04-29 00:00:00.0</t>
-  </si>
-  <si>
-    <t>AVAILABLE</t>
-  </si>
-  <si>
     <t>Rameshwari Lekadh</t>
   </si>
   <si>
+    <t>ASSZptFRKx630</t>
+  </si>
+  <si>
+    <t>Ec20239339</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>ASSIyaN8IY885</t>
   </si>
   <si>
-    <t>Inspiron365</t>
-  </si>
-  <si>
-    <t>dijdajida898978</t>
-  </si>
-  <si>
-    <t>2022-04-08 00:00:00.0</t>
+    <t>sff8ffer23fu</t>
+  </si>
+  <si>
+    <t>lenovo</t>
+  </si>
+  <si>
+    <t>hjjfhggk</t>
+  </si>
+  <si>
+    <t>2020-01-19 05:30:00.0</t>
   </si>
   <si>
     <t>2024-03-27 00:00:00.0</t>
   </si>
   <si>
-    <t>8GB</t>
-  </si>
-  <si>
-    <t/>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>ramya</t>
+  </si>
+  <si>
+    <t>ASS2FqWKmp716</t>
+  </si>
+  <si>
+    <t>allidsvsjk</t>
+  </si>
+  <si>
+    <t>ASScjEv4eu295</t>
+  </si>
+  <si>
+    <t>asus</t>
+  </si>
+  <si>
+    <t>allidssjk</t>
   </si>
 </sst>
 </file>
@@ -158,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -236,36 +266,36 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -274,22 +304,118 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/assetDetailsreports.xlsx
+++ b/assetDetailsreports.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
   <si>
     <t>Asset Id</t>
   </si>
@@ -44,93 +44,135 @@
     <t>Assigned To</t>
   </si>
   <si>
+    <t>ASS6IhfOOl291</t>
+  </si>
+  <si>
+    <t>intell i3</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>123232dwss</t>
+  </si>
+  <si>
+    <t>2022-05-17 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-05-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t>AVAILABLE</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>Amazonzz</t>
+  </si>
+  <si>
+    <t>Chandinis Sundar</t>
+  </si>
+  <si>
+    <t>ASSEvCyRge904</t>
+  </si>
+  <si>
+    <t>561684hgjy</t>
+  </si>
+  <si>
+    <t>hyug676dddd</t>
+  </si>
+  <si>
+    <t>2022-05-06 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-05-26 00:00:00.0</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>wygetfe</t>
+  </si>
+  <si>
+    <t>N dcdsccsdc jv dsjk c sd</t>
+  </si>
+  <si>
+    <t>ASSFwKtRPU302</t>
+  </si>
+  <si>
+    <t>Legion 77</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>00070070</t>
+  </si>
+  <si>
+    <t>2022-04-03 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-04-29 00:00:00.0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>ASSPZWAjGI771</t>
   </si>
   <si>
+    <t>intel i5 3001</t>
+  </si>
+  <si>
+    <t>Asus</t>
+  </si>
+  <si>
+    <t>Ec20239330</t>
+  </si>
+  <si>
+    <t>2022-04-22 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-04-23 00:00:00.0</t>
+  </si>
+  <si>
+    <t>1gb</t>
+  </si>
+  <si>
+    <t>ramya</t>
+  </si>
+  <si>
+    <t>ASSIyaN8IY885</t>
+  </si>
+  <si>
+    <t>sff8ffer23fu</t>
+  </si>
+  <si>
+    <t>lenovo</t>
+  </si>
+  <si>
+    <t>hjjfhggk</t>
+  </si>
+  <si>
+    <t>2020-01-19 05:30:00.0</t>
+  </si>
+  <si>
+    <t>2024-03-27 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2GB</t>
+  </si>
+  <si>
+    <t>ASSZptFRKx630</t>
+  </si>
+  <si>
     <t>intel i5 3000</t>
   </si>
   <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>Ec20239330</t>
-  </si>
-  <si>
-    <t>2022-04-22 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2022-04-23 00:00:00.0</t>
-  </si>
-  <si>
-    <t>AVAILABLE</t>
-  </si>
-  <si>
-    <t>1gb</t>
-  </si>
-  <si>
-    <t>Amazonzz</t>
-  </si>
-  <si>
-    <t>Sneha Sriramaneni</t>
-  </si>
-  <si>
-    <t>ASSFwKtRPU302</t>
-  </si>
-  <si>
-    <t>Legion 77</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>00070070</t>
-  </si>
-  <si>
-    <t>2022-04-03 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2022-04-29 00:00:00.0</t>
-  </si>
-  <si>
-    <t>32GB</t>
-  </si>
-  <si>
-    <t>Rameshwari Lekadh</t>
-  </si>
-  <si>
-    <t>ASSZptFRKx630</t>
-  </si>
-  <si>
     <t>Ec20239339</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>ASSIyaN8IY885</t>
-  </si>
-  <si>
-    <t>sff8ffer23fu</t>
-  </si>
-  <si>
-    <t>lenovo</t>
-  </si>
-  <si>
-    <t>hjjfhggk</t>
-  </si>
-  <si>
-    <t>2020-01-19 05:30:00.0</t>
-  </si>
-  <si>
-    <t>2024-03-27 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2GB</t>
-  </si>
-  <si>
-    <t>ramya</t>
-  </si>
-  <si>
     <t>ASS2FqWKmp716</t>
   </si>
   <si>
@@ -144,6 +186,81 @@
   </si>
   <si>
     <t>allidssjk</t>
+  </si>
+  <si>
+    <t>ASSiPkuCPx182</t>
+  </si>
+  <si>
+    <t>allidssJjk</t>
+  </si>
+  <si>
+    <t>ASSwHjBxyV523</t>
+  </si>
+  <si>
+    <t>allidYssJjk</t>
+  </si>
+  <si>
+    <t>ASS2R38Qtn735</t>
+  </si>
+  <si>
+    <t>allidYssuJjk</t>
+  </si>
+  <si>
+    <t>ASSyB1aIJE466</t>
+  </si>
+  <si>
+    <t>sjahsyabj</t>
+  </si>
+  <si>
+    <t>ssssssxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>2022-05-16 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-11-11 00:00:00.0</t>
+  </si>
+  <si>
+    <t>ASS4r0VjMH764</t>
+  </si>
+  <si>
+    <t>5/4/2022</t>
+  </si>
+  <si>
+    <t>zssdsdsdsd</t>
+  </si>
+  <si>
+    <t>2022-05-05 00:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-10-14 00:00:00.0</t>
+  </si>
+  <si>
+    <t>ASS4neK1wP654</t>
+  </si>
+  <si>
+    <t>V15005678</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>2022-05-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>ASSqFHSHIQ324</t>
+  </si>
+  <si>
+    <t>123446778</t>
+  </si>
+  <si>
+    <t>55678999</t>
+  </si>
+  <si>
+    <t>2022-05-12 00:00:00.0</t>
   </si>
 </sst>
 </file>
@@ -188,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -266,25 +383,25 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
@@ -295,127 +412,415 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
